--- a/data/cable_text.xlsx
+++ b/data/cable_text.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\develop\git_space\predictDramaRating\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\develop\git_space\predictDramaRating\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2066,18 +2066,6 @@
                 <c:pt idx="191">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="192">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>12762</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>548.5</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>957</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2091,11 +2079,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1773728960"/>
-        <c:axId val="1773728416"/>
+        <c:axId val="-1742414864"/>
+        <c:axId val="-1630168560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1773728960"/>
+        <c:axId val="-1742414864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2152,12 +2140,12 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1773728416"/>
+        <c:crossAx val="-1630168560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1773728416"/>
+        <c:axId val="-1630168560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2214,7 +2202,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1773728960"/>
+        <c:crossAx val="-1742414864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2823,16 +2811,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25724,15 +25712,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M197"/>
+  <dimension ref="A1:O193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" activeCellId="1" sqref="D1:D1048576 M1:M1048576"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>193</v>
       </c>
@@ -25773,7 +25761,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>12</v>
       </c>
@@ -25814,8 +25802,12 @@
         <f>SUM(F2:L2)</f>
         <v>957</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O2">
+        <f>MIN(M2:M193)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>12</v>
       </c>
@@ -25856,8 +25848,12 @@
         <f t="shared" ref="M3:M66" si="0">SUM(F3:L3)</f>
         <v>438</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O3">
+        <f>MAX(M2:M193)</f>
+        <v>12762</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>12</v>
       </c>
@@ -25898,8 +25894,12 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O4">
+        <f>MEDIAN(M2:M193)</f>
+        <v>548.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>12</v>
       </c>
@@ -25940,8 +25940,12 @@
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O5">
+        <f>AVERAGE(M2)</f>
+        <v>957</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>12</v>
       </c>
@@ -25983,7 +25987,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>12</v>
       </c>
@@ -26025,7 +26029,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>12</v>
       </c>
@@ -26067,7 +26071,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>17</v>
       </c>
@@ -26109,7 +26113,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>17</v>
       </c>
@@ -26151,7 +26155,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>17</v>
       </c>
@@ -26193,7 +26197,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>17</v>
       </c>
@@ -26235,7 +26239,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>17</v>
       </c>
@@ -26277,7 +26281,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>17</v>
       </c>
@@ -26319,7 +26323,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>17</v>
       </c>
@@ -26361,7 +26365,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>24</v>
       </c>
@@ -33837,34 +33841,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M194">
-        <f>MIN(M2:M193)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M195">
-        <f>MAX(M2:M193)</f>
-        <v>12762</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M196">
-        <f>MEDIAN(M2:M193)</f>
-        <v>548.5</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M197">
-        <f>AVERAGE(M2)</f>
-        <v>957</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
